--- a/Production/BOMs/PCBgogo/3DProUsb-PCBgogo-BOM-DigiKey.xlsx
+++ b/Production/BOMs/PCBgogo/3DProUsb-PCBgogo-BOM-DigiKey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kreeblah/SidewinderToUSBV2/Production/BOMs/PCBgogo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDF5669-40FA-D541-8A86-65BBAC9DBF5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1734D7-EF31-8F48-AD8C-0CD763491B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28120" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28120" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
   <si>
     <t>Quantity</t>
   </si>
@@ -93,9 +93,6 @@
     <t>R7</t>
   </si>
   <si>
-    <t>CONN RCPT USB2.0 MICRO B SMD R/A</t>
-  </si>
-  <si>
     <t>DO NOT POPULATE - NOT A PART</t>
   </si>
   <si>
@@ -291,13 +288,34 @@
     <t>C1,C2,C11</t>
   </si>
   <si>
-    <t>10118193-0001LF</t>
-  </si>
-  <si>
-    <t>Amphenol ICC (FCI)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en?keywords=609-4616-2-ND</t>
+    <t>CONN RCP USB2.0 TYP C 24P SMD RA</t>
+  </si>
+  <si>
+    <t>USB4105-GF-A</t>
+  </si>
+  <si>
+    <t>GCT</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/gct/USB4105-GF-A/11198441</t>
+  </si>
+  <si>
+    <t>R8,R9</t>
+  </si>
+  <si>
+    <t>RES SMD 5.1K OHM 0.1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>5.1kohm 0.1% 1/16W</t>
+  </si>
+  <si>
+    <t>Panasonic Electronic Components</t>
+  </si>
+  <si>
+    <t>ERA-2APB512X</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/era-2apb512x/5140865</t>
   </si>
 </sst>
 </file>
@@ -435,7 +453,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -471,15 +489,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
@@ -889,7 +908,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -909,13 +928,13 @@
     <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -951,13 +970,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>89</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>90</v>
@@ -965,7 +984,7 @@
       <c r="G3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="16" t="s">
         <v>91</v>
       </c>
     </row>
@@ -977,22 +996,22 @@
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1003,22 +1022,22 @@
         <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1029,22 +1048,22 @@
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1055,22 +1074,22 @@
         <v>13</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1081,22 +1100,22 @@
         <v>14</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1107,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1130,25 +1149,25 @@
         <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1159,22 +1178,22 @@
         <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1185,22 +1204,22 @@
         <v>17</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>68</v>
+        <v>31</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1211,22 +1230,22 @@
         <v>18</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>69</v>
+        <v>32</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1237,22 +1256,22 @@
         <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>70</v>
+        <v>33</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1263,22 +1282,22 @@
         <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>71</v>
+        <v>34</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1289,22 +1308,22 @@
         <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>72</v>
+        <v>35</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1315,22 +1334,48 @@
         <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>73</v>
+        <v>36</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1347,15 +1392,16 @@
     <hyperlink ref="H14" r:id="rId7" xr:uid="{D176F6AA-7B60-7349-9E2E-8B9DC7C07F8E}"/>
     <hyperlink ref="H15" r:id="rId8" xr:uid="{47A78C2E-E07A-C047-A286-226077CAF94F}"/>
     <hyperlink ref="H16" r:id="rId9" xr:uid="{B4774D70-8606-764C-AA31-9717A9F8B2FB}"/>
-    <hyperlink ref="H17" r:id="rId10" xr:uid="{8ED29B9E-A8D7-C94C-BC26-4DC480A728AC}"/>
+    <hyperlink ref="H18" r:id="rId10" xr:uid="{8ED29B9E-A8D7-C94C-BC26-4DC480A728AC}"/>
     <hyperlink ref="H8" r:id="rId11" xr:uid="{341120A2-27A7-0A4F-97D0-7B4A728B37DD}"/>
     <hyperlink ref="H9" r:id="rId12" xr:uid="{D9C793A4-6345-DA4E-9684-83B8382F5755}"/>
     <hyperlink ref="H10" r:id="rId13" xr:uid="{F79D369A-F308-8F45-AC28-092D4C72EA71}"/>
     <hyperlink ref="H11" r:id="rId14" xr:uid="{DFF382A3-CAFD-2C4D-8CD4-1B6E5A21BE0B}"/>
+    <hyperlink ref="H17" r:id="rId15" xr:uid="{99F62D68-38B8-0544-A238-835CC2B7B019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
 
